--- a/rfuse/Archive/gpu_혼잡도_실험_v1/새 Microsoft Excel 워크시트.xlsx
+++ b/rfuse/Archive/gpu_혼잡도_실험_v1/새 Microsoft Excel 워크시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3bbcfeab54bef5/ドキュメント/GitHub/ldy/rfuse/Archive/gpu_혼잡도_실험_v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_AD4D066CA252ABDACC10487031A0617F49B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F3BF214-DB10-410C-B19A-4C7D1E1362B6}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_AD4D066CA252ABDACC10487031A0617F49B8DF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{111003A5-6259-4519-91A5-9ADEE3F73D1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,11 +128,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -292,7 +292,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8121-4269-A1B4-6CCE3A8FF9D5}"/>
+              <c16:uniqueId val="{00000000-C277-42A5-951C-08001063DDF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -387,7 +387,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8121-4269-A1B4-6CCE3A8FF9D5}"/>
+              <c16:uniqueId val="{00000001-C277-42A5-951C-08001063DDF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -736,7 +736,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93D2-43FE-A75E-6AE36128F555}"/>
+              <c16:uniqueId val="{00000000-A41D-4DAA-BA84-7E82635CF9BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -831,7 +831,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-93D2-43FE-A75E-6AE36128F555}"/>
+              <c16:uniqueId val="{00000001-A41D-4DAA-BA84-7E82635CF9BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2128,23 +2128,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52D8521-1A39-48C3-AD86-FC4D14CE23A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86420789-8D8B-43A9-9AC5-B814B44235A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,26 +2167,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>481012</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="5" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE656641-014F-F1C4-5760-58506E9C06BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F9AA7CC-7E7C-4E06-BEB2-DF4CFF558F3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2201,6 +2203,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2468,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2481,16 +2487,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -2838,28 +2844,28 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.1777</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.18110000000000001</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.12970000000000001</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.214</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>0.15179999999999999</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>0.25</v>
       </c>
     </row>
